--- a/EspacoDoCoordenador.xlsx
+++ b/EspacoDoCoordenador.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="setores" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Setor</t>
   </si>
@@ -28,46 +28,70 @@
     <t>TI</t>
   </si>
   <si>
-    <t>Ensino Médio</t>
-  </si>
-  <si>
     <t>Ensino Fundamental</t>
   </si>
   <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>Teste2</t>
-  </si>
-  <si>
     <t>Professor</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>fabiano</t>
-  </si>
-  <si>
     <t>fabiano@gmail.com</t>
   </si>
   <si>
-    <t>Andre</t>
-  </si>
-  <si>
-    <t>andre@gmail.com</t>
-  </si>
-  <si>
-    <t>Mateus</t>
-  </si>
-  <si>
-    <t>mateushb123@gmail.com</t>
-  </si>
-  <si>
-    <t>teste@gmail.com</t>
-  </si>
-  <si>
     <t>Ensino Medio</t>
+  </si>
+  <si>
+    <t>Mecatronica</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de Sistemas</t>
+  </si>
+  <si>
+    <t>Andre Francelino</t>
+  </si>
+  <si>
+    <t>andref@gmail.com</t>
+  </si>
+  <si>
+    <t>Fabiano Luiz da Silva</t>
+  </si>
+  <si>
+    <t>Peterson Macedo</t>
+  </si>
+  <si>
+    <t>peterson@gmail.com</t>
+  </si>
+  <si>
+    <t>Elvis Schimidt</t>
+  </si>
+  <si>
+    <t>elviss@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovana </t>
+  </si>
+  <si>
+    <t>govana@g</t>
+  </si>
+  <si>
+    <t>Ricardo Gabiec</t>
+  </si>
+  <si>
+    <t>ricardog@gmail.com</t>
+  </si>
+  <si>
+    <t>Adriano</t>
+  </si>
+  <si>
+    <t>adriano@gmail.com</t>
+  </si>
+  <si>
+    <t>Claudemir</t>
+  </si>
+  <si>
+    <t>claudeir@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -218,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,7 +281,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -566,13 +589,13 @@
   </sheetPr>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
@@ -588,7 +611,7 @@
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -596,7 +619,7 @@
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -604,7 +627,7 @@
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -612,16 +635,14 @@
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
@@ -1204,24 +1225,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
@@ -1229,10 +1251,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>1</v>
@@ -1240,10 +1262,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1262,17 +1284,58 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1280,8 +1343,12 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>